--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150250.3255478751</v>
+        <v>145576.690805888</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7758670.800307882</v>
+        <v>7758670.800307887</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4639941.489717235</v>
+        <v>4639941.489717236</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796769</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424617</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>27.25101561306824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>15.69633924685103</v>
       </c>
     </row>
     <row r="9">
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>65.08654240853149</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X9" t="n">
-        <v>5.057941532640237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.05514816323318</v>
+        <v>68.91523769210232</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616404</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.7201600721336</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>348.6717361762555</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>194.1184304161717</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.0789985456657</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>350.7854257602681</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.1860412319792</v>
       </c>
       <c r="W16" t="n">
-        <v>176.0448961179416</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>206.830568865193</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>164.2274365462261</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.0864678557146</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>43.23222913487228</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>174.3637534427361</v>
       </c>
       <c r="V20" t="n">
-        <v>179.1735387309203</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.033780699103743</v>
+        <v>138.0340314236579</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>414.4961431303271</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>186.8835669644652</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.45564828228861</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>112.576122619078</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>385.825614864572</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>176.086781930971</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>136.1687551788905</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>131.3576479578672</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>249.619755558696</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>174.1520217478738</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>187.0468379026517</v>
       </c>
       <c r="X31" t="n">
-        <v>118.2836393457703</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>48.50583343253317</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>170.8454278428345</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>244.0427497400019</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>141.8733179420223</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>70.91523930808343</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>120.2175023129948</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5166016883191</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>187.4450760336508</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>397.8964949395099</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>81.85937560146505</v>
       </c>
       <c r="T40" t="n">
-        <v>99.39993757081373</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>185.6605362285193</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>334.9359946429864</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.033780699103757</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.18189662745586</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>362.2916534415442</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>156.7012890994286</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.033780699103638</v>
+        <v>46.18189662745586</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.05952875641</v>
+        <v>129.0595287564099</v>
       </c>
       <c r="C8" t="n">
-        <v>94.95745998023733</v>
+        <v>94.95745998023729</v>
       </c>
       <c r="D8" t="n">
-        <v>63.08807919508591</v>
+        <v>63.08807919508587</v>
       </c>
       <c r="E8" t="n">
-        <v>33.35373839378514</v>
+        <v>33.35373839378511</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585579</v>
+        <v>23.57954741585574</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558061</v>
+        <v>55.41632306558044</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318076</v>
+        <v>103.1313969318072</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183105</v>
+        <v>162.3261653183099</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590944</v>
+        <v>228.1917507590937</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326598</v>
+        <v>295.1231102326589</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336445</v>
+        <v>358.3244950336432</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455694</v>
+        <v>412.265414745568</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245039</v>
+        <v>452.7727990245024</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698467</v>
+        <v>476.335642169845</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648288</v>
+        <v>401.405083464827</v>
       </c>
       <c r="T8" t="n">
-        <v>401.4050834648288</v>
+        <v>401.405083464827</v>
       </c>
       <c r="U8" t="n">
-        <v>401.4050834648288</v>
+        <v>281.1183051391086</v>
       </c>
       <c r="V8" t="n">
-        <v>401.4050834648288</v>
+        <v>281.1183051391086</v>
       </c>
       <c r="W8" t="n">
-        <v>281.11830513911</v>
+        <v>280.303254590546</v>
       </c>
       <c r="X8" t="n">
-        <v>253.5920267420713</v>
+        <v>265.2011952102607</v>
       </c>
       <c r="Y8" t="n">
-        <v>249.3463070821288</v>
+        <v>249.3463070821284</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="C9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="D9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="E9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114693</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437531</v>
+        <v>35.39855022437517</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369144</v>
+        <v>67.80722760369119</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193811</v>
+        <v>111.3846938193807</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767973</v>
+        <v>162.2375414767967</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943345</v>
+        <v>214.4363126943337</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006675</v>
+        <v>262.1879905006666</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025299</v>
+        <v>300.5129218025288</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335051</v>
+        <v>326.1321234335039</v>
       </c>
       <c r="R9" t="n">
-        <v>338.5931397298248</v>
+        <v>338.5931397298235</v>
       </c>
       <c r="S9" t="n">
-        <v>338.5931397298248</v>
+        <v>278.9413117837936</v>
       </c>
       <c r="T9" t="n">
-        <v>338.5931397298248</v>
+        <v>213.1973295529537</v>
       </c>
       <c r="U9" t="n">
-        <v>338.5931397298248</v>
+        <v>213.1973295529537</v>
       </c>
       <c r="V9" t="n">
-        <v>218.3063614041059</v>
+        <v>213.1973295529537</v>
       </c>
       <c r="W9" t="n">
-        <v>98.01958307838707</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="X9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.91055122723532</v>
+        <v>92.91055122723527</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="C10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="D10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="E10" t="n">
-        <v>129.8134911691158</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396934</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396934</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396934</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642524</v>
+        <v>21.42271513642516</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137722</v>
+        <v>40.97150121137709</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583458</v>
+        <v>65.98721697583436</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728978</v>
+        <v>92.36278178728944</v>
       </c>
       <c r="N10" t="n">
-        <v>118.1111946198146</v>
+        <v>118.1111946198142</v>
       </c>
       <c r="O10" t="n">
-        <v>141.8940213720332</v>
+        <v>141.8940213720327</v>
       </c>
       <c r="P10" t="n">
-        <v>162.2443382688377</v>
+        <v>162.2443382688371</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.3338428491493</v>
+        <v>176.3338428491487</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="S10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="T10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="U10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="V10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="W10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="X10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
       <c r="Y10" t="n">
-        <v>176.3338428491493</v>
+        <v>162.6352281257506</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1184.56904909225</v>
+        <v>1532.898990326701</v>
       </c>
       <c r="C11" t="n">
-        <v>746.4265762756731</v>
+        <v>1532.898990326701</v>
       </c>
       <c r="D11" t="n">
-        <v>746.4265762756731</v>
+        <v>1096.989205501145</v>
       </c>
       <c r="E11" t="n">
-        <v>746.4265762756731</v>
+        <v>1096.989205501145</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>669.1217759103529</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5077,16 +5077,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.855172792596</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y11" t="n">
-        <v>1184.56904909225</v>
+        <v>1532.898990326701</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,7 +5111,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895473</v>
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
         <v>47.20655154895473</v>
@@ -5226,25 +5226,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>854.7959157263747</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T13" t="n">
-        <v>612.5486916297813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U13" t="n">
-        <v>334.1620596785243</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V13" t="n">
-        <v>47.20655154895473</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="W13" t="n">
-        <v>47.20655154895473</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="X13" t="n">
-        <v>47.20655154895473</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1532.898990326701</v>
+        <v>1578.568163960874</v>
       </c>
       <c r="C14" t="n">
-        <v>1532.898990326701</v>
+        <v>1578.568163960874</v>
       </c>
       <c r="D14" t="n">
-        <v>1532.898990326701</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E14" t="n">
-        <v>1099.124245484996</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>671.256815894204</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5314,16 +5314,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>1578.568163960874</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.898990326701</v>
+        <v>1578.568163960874</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
@@ -5469,19 +5469,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U16" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V16" t="n">
-        <v>889.6597230122813</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="W16" t="n">
-        <v>711.8365956204211</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="X16" t="n">
-        <v>466.4448409538336</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="Y16" t="n">
-        <v>239.0251702679419</v>
+        <v>345.4286049681161</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1128.043535737734</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C17" t="n">
-        <v>689.9010629211575</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1320.516015045344</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>901.3735516246547</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>901.3735516246547</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.6778104690033</v>
+        <v>662.2400523263896</v>
       </c>
       <c r="C19" t="n">
-        <v>330.6778104690033</v>
+        <v>489.6783408096145</v>
       </c>
       <c r="D19" t="n">
-        <v>330.6778104690033</v>
+        <v>489.6783408096145</v>
       </c>
       <c r="E19" t="n">
-        <v>330.6778104690033</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F19" t="n">
-        <v>153.9707564307595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G19" t="n">
-        <v>153.9707564307595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5709,16 +5709,16 @@
         <v>889.6597230122813</v>
       </c>
       <c r="V19" t="n">
-        <v>602.7042148827118</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W19" t="n">
-        <v>330.6778104690033</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X19" t="n">
-        <v>330.6778104690033</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.6778104690033</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1344.758510807007</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1931.964952654135</v>
       </c>
       <c r="V20" t="n">
-        <v>2179.344204992262</v>
+        <v>1569.348002587961</v>
       </c>
       <c r="W20" t="n">
-        <v>2179.344204992262</v>
+        <v>1569.348002587961</v>
       </c>
       <c r="X20" t="n">
-        <v>2179.344204992262</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="Y20" t="n">
-        <v>1771.058081291915</v>
+        <v>1150.205539167272</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.20655154895474</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="C22" t="n">
-        <v>47.20655154895474</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D22" t="n">
-        <v>47.20655154895474</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895474</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
@@ -5943,19 +5943,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U22" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V22" t="n">
-        <v>324.3175829314549</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W22" t="n">
-        <v>52.2911785177464</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X22" t="n">
-        <v>52.2911785177464</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.20655154895474</v>
+        <v>750.2314084429299</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.2588091910869</v>
+        <v>465.889524407871</v>
       </c>
       <c r="C23" t="n">
-        <v>483.1163363745102</v>
+        <v>465.889524407871</v>
       </c>
       <c r="D23" t="n">
-        <v>47.20655154895474</v>
+        <v>465.889524407871</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895474</v>
+        <v>465.889524407871</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2171.556297685651</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2171.556297685651</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V23" t="n">
-        <v>2171.556297685651</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>1766.700843096684</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X23" t="n">
-        <v>1347.558379675995</v>
+        <v>874.1756481082176</v>
       </c>
       <c r="Y23" t="n">
-        <v>1347.558379675995</v>
+        <v>465.889524407871</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
@@ -6177,22 +6177,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>369.0258669644309</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V25" t="n">
-        <v>369.0258669644309</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W25" t="n">
-        <v>369.0258669644309</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="X25" t="n">
-        <v>369.0258669644309</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.6061962785392</v>
+        <v>216.9645552982175</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1355.033554032792</v>
+        <v>1578.568163960873</v>
       </c>
       <c r="C26" t="n">
-        <v>916.8910812162151</v>
+        <v>1140.425691144297</v>
       </c>
       <c r="D26" t="n">
-        <v>480.9812963906596</v>
+        <v>1140.425691144297</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895475</v>
+        <v>706.6509463025918</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895475</v>
+        <v>706.6509463025918</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.462141153827</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X26" t="n">
-        <v>1763.319677733138</v>
+        <v>1578.568163960873</v>
       </c>
       <c r="Y26" t="n">
-        <v>1355.033554032792</v>
+        <v>1578.568163960873</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
         <v>326.783117436994</v>
@@ -6411,25 +6411,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>752.1155258618869</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>752.1155258618869</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V28" t="n">
-        <v>465.1600177323173</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="W28" t="n">
-        <v>465.1600177323173</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="X28" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895472</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1163.124933196309</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C29" t="n">
-        <v>910.9837659653025</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D29" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F29" t="n">
         <v>47.20655154895473</v>
@@ -6460,25 +6460,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W29" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X29" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1589.424503681216</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895473</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.7682630657298</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="D31" t="n">
         <v>47.20655154895473</v>
@@ -6651,22 +6651,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V31" t="n">
-        <v>611.2730910610244</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W31" t="n">
-        <v>339.2466866473159</v>
+        <v>458.4762990140196</v>
       </c>
       <c r="X31" t="n">
-        <v>219.7682630657298</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.7682630657298</v>
+        <v>213.0845443474321</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6736,16 +6736,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>765.4265856715602</v>
       </c>
     </row>
     <row r="33">
@@ -6770,13 +6770,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.07035883486139</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="C34" t="n">
-        <v>82.07035883486139</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="D34" t="n">
-        <v>82.07035883486139</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6888,22 +6888,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>369.0258669644309</v>
+        <v>643.1518949920774</v>
       </c>
       <c r="V34" t="n">
-        <v>82.07035883486139</v>
+        <v>643.1518949920774</v>
       </c>
       <c r="W34" t="n">
-        <v>82.07035883486139</v>
+        <v>643.1518949920774</v>
       </c>
       <c r="X34" t="n">
-        <v>82.07035883486139</v>
+        <v>643.1518949920774</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.07035883486139</v>
+        <v>415.7322243061857</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1154.573267142144</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6970,19 +6970,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1989.158961327398</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>1989.158961327398</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.872837627051</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9645552982175</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9645552982175</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9645552982175</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U37" t="n">
-        <v>889.6597230122813</v>
+        <v>525.9806783975114</v>
       </c>
       <c r="V37" t="n">
-        <v>716.4106303978176</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="W37" t="n">
-        <v>444.3842259841092</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="X37" t="n">
-        <v>444.3842259841092</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9645552982175</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1346.991198798029</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="C38" t="n">
-        <v>908.8487259814518</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228009</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>2170.989116807685</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W38" t="n">
-        <v>1766.133662218718</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X38" t="n">
-        <v>1346.991198798029</v>
+        <v>891.4024600748569</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.991198798029</v>
+        <v>483.1163363745102</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7359,25 +7359,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122813</v>
+        <v>806.9734850310035</v>
       </c>
       <c r="T40" t="n">
-        <v>789.255745668025</v>
+        <v>806.9734850310035</v>
       </c>
       <c r="U40" t="n">
-        <v>510.869113716768</v>
+        <v>806.9734850310035</v>
       </c>
       <c r="V40" t="n">
-        <v>223.9136055871985</v>
+        <v>520.0179769014339</v>
       </c>
       <c r="W40" t="n">
-        <v>223.9136055871985</v>
+        <v>520.0179769014339</v>
       </c>
       <c r="X40" t="n">
-        <v>223.9136055871985</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.9281030050443</v>
+        <v>932.3314277761591</v>
       </c>
       <c r="C41" t="n">
-        <v>316.9281030050443</v>
+        <v>932.3314277761591</v>
       </c>
       <c r="D41" t="n">
-        <v>316.9281030050443</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
         <v>316.9281030050443</v>
@@ -7405,28 +7405,28 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.546859998019</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X41" t="n">
-        <v>743.2276734899522</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.2276734899522</v>
+        <v>932.3314277761591</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1564.522786416183</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C43" t="n">
-        <v>1564.522786416183</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D43" t="n">
-        <v>1564.522786416183</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E43" t="n">
-        <v>1564.522786416183</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1797.450971872448</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>2055.554276014867</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.940945496479</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V43" t="n">
-        <v>2081.940945496479</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.91454108277</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.522786416183</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y43" t="n">
-        <v>1564.522786416183</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1276.934931057771</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E44" t="n">
         <v>475.073981139747</v>
@@ -7645,13 +7645,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867023</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>2202.043447044273</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.900983623584</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.900983623584</v>
+        <v>1703.234501542679</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906846</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7836,16 +7836,16 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>884.5750960434898</v>
+        <v>843.0113425805077</v>
       </c>
       <c r="U46" t="n">
-        <v>606.1884640922327</v>
+        <v>564.6247106292508</v>
       </c>
       <c r="V46" t="n">
-        <v>319.2329559626632</v>
+        <v>564.6247106292508</v>
       </c>
       <c r="W46" t="n">
-        <v>47.20655154895473</v>
+        <v>292.5983062155423</v>
       </c>
       <c r="X46" t="n">
         <v>47.20655154895473</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>126.8685952227507</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>46.8359282310621</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>108.4671038977602</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>89.96752263210217</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23484,7 +23484,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.47168843163422</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>44.72223864704949</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23670,7 +23670,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23709,19 +23709,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>20.89991181629466</v>
       </c>
       <c r="W16" t="n">
-        <v>93.26124425162976</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>224.7201181121069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>236.5794634968509</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>35.97395585605554</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>87.78839087960496</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>82.1162311209651</v>
       </c>
       <c r="V20" t="n">
-        <v>179.8172418345914</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24135,13 +24135,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24183,19 +24183,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.1116932799291</v>
+        <v>87.11144255537491</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>9.092612164557238</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>22.76997205111365</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.44478424950863</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24372,7 +24372,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24417,22 +24417,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.5693513599548</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>9.682049542745574</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>224.720118112106</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.6559966767369</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>137.9484924117042</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>184.1412925297149</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>230.0512407154693</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24891,19 +24891,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.25930246691971</v>
       </c>
       <c r="X31" t="n">
-        <v>124.6541977741514</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>373.5307413475255</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>244.1056109436479</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25083,10 +25083,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>133.5452544987225</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25128,13 +25128,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>31.56001589174249</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25143,7 +25143,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>280.1632568380364</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>329.8916607349936</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25320,7 +25320,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -25365,22 +25365,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>155.3852633187497</v>
       </c>
       <c r="V37" t="n">
-        <v>112.5693513599547</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>171.5457045318609</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>17.05454384697248</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>61.12289750934278</v>
       </c>
       <c r="T40" t="n">
-        <v>140.4248142848137</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>245.8901507487806</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>80.01504414349597</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>159.1854321713888</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>128.7580868704055</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>71.46939464686676</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25927,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>244.1056109436484</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26076,19 +26076,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>234.7909711565238</v>
+        <v>193.6428552281716</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967917</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>328591.1873967917</v>
+        <v>328591.1873967914</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>328591.1873967914</v>
+        <v>328591.1873967916</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300946.1639116302</v>
+        <v>300946.1639116303</v>
       </c>
       <c r="C2" t="n">
         <v>300946.1639116303</v>
@@ -26322,22 +26322,22 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
+        <v>160799.9427686427</v>
+      </c>
+      <c r="F2" t="n">
+        <v>160799.9427686427</v>
+      </c>
+      <c r="G2" t="n">
         <v>160799.9427686428</v>
       </c>
-      <c r="F2" t="n">
-        <v>160799.9427686428</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>160799.9427686427</v>
-      </c>
-      <c r="H2" t="n">
-        <v>160799.9427686428</v>
       </c>
       <c r="I2" t="n">
         <v>160799.9427686427</v>
       </c>
       <c r="J2" t="n">
-        <v>160799.9427686428</v>
+        <v>160799.9427686427</v>
       </c>
       <c r="K2" t="n">
         <v>160799.9427686427</v>
@@ -26346,13 +26346,13 @@
         <v>160799.9427686427</v>
       </c>
       <c r="M2" t="n">
-        <v>160799.9427686428</v>
+        <v>160799.9427686427</v>
       </c>
       <c r="N2" t="n">
         <v>160799.9427686427</v>
       </c>
       <c r="O2" t="n">
-        <v>160799.9427686427</v>
+        <v>160799.9427686428</v>
       </c>
       <c r="P2" t="n">
         <v>160799.9427686428</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730586</v>
+        <v>117708.4675730582</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180435</v>
+        <v>439858.2450180438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310219</v>
+        <v>30139.06600310206</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597478</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>273863.0295154521</v>
+        <v>273863.0295154522</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
@@ -26435,13 +26435,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="I4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
         <v>414.2905444231689</v>
@@ -26453,13 +26453,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239242</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770415</v>
       </c>
       <c r="D6" t="n">
-        <v>-126209.3504239184</v>
+        <v>-126209.350423918</v>
       </c>
       <c r="E6" t="n">
-        <v>-325523.6740034617</v>
+        <v>-326164.9121172375</v>
       </c>
       <c r="F6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="G6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="H6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008063</v>
       </c>
       <c r="I6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008063</v>
       </c>
       <c r="J6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="K6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008063</v>
       </c>
       <c r="L6" t="n">
-        <v>84195.50501147953</v>
+        <v>83554.26689770431</v>
       </c>
       <c r="M6" t="n">
-        <v>-3040.010545165998</v>
+        <v>-3681.248658941588</v>
       </c>
       <c r="N6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="O6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="P6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480534</v>
+        <v>94.250482174805</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26755,25 +26755,25 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932211</v>
@@ -26795,40 +26795,40 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480534</v>
+        <v>94.250482174805</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184159</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194724</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424618</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194724</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194724</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.952664237597</v>
+        <v>302.9526642375974</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27909,19 +27909,19 @@
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008318</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006153</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>387.7000231734141</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>388.5069232164921</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656961</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>128.0597233353587</v>
+        <v>62.9731809268272</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615897</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167626</v>
+        <v>64.38561618167668</v>
       </c>
       <c r="X9" t="n">
-        <v>148.2608198708686</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28019,10 +28019,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>122.0052755485369</v>
+        <v>99.14518601966779</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295539967</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -28031,7 +28031,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616401</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378896410752986</v>
+        <v>0.3788964107529846</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624019</v>
+        <v>3.880372866624005</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555451</v>
+        <v>14.60740387555446</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214628</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932018</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990189</v>
+        <v>59.79269533990168</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846303</v>
+        <v>66.53089438463006</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168223</v>
+        <v>67.60743381168199</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725722</v>
+        <v>63.83978262725699</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679287</v>
+        <v>54.48577748679267</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670154</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196228</v>
+        <v>23.80085166196219</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033677</v>
+        <v>8.634101960033647</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071197</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023887</v>
+        <v>0.03031171286023877</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225053</v>
+        <v>0.2027274522250523</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857749</v>
+        <v>1.957920393857742</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888887</v>
+        <v>6.979870613888862</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780644</v>
+        <v>19.15329845780637</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688498</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211074</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852689</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286587</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619496</v>
+        <v>48.23401798619478</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006297</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542958</v>
+        <v>25.87798144542948</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779759</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531135</v>
+        <v>3.765573509531122</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457177</v>
+        <v>0.8171338973457147</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322718</v>
+        <v>0.01333733238322713</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889932</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540323</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643543</v>
+        <v>5.111157295643524</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235182</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055757</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207814</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803554</v>
+        <v>26.64198465803545</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063113</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547334</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333786</v>
+        <v>20.55587565333779</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839561</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.64201450551782</v>
+        <v>7.642014505517793</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083636</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075163</v>
+        <v>0.7261922397075137</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308732</v>
+        <v>0.009270539230308699</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32244,7 +32244,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32569,19 +32569,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32806,19 +32806,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33043,19 +33043,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,43 +33256,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062831</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
@@ -34152,19 +34152,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642311</v>
+        <v>14.19478239642306</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214628</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932018</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990191</v>
+        <v>59.79269533990168</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846303</v>
+        <v>66.5308943846301</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116822</v>
+        <v>67.607433811682</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725725</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679287</v>
+        <v>54.4857774867927</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670152</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196233</v>
+        <v>23.80085166196216</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888888</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780644</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688499</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211074</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526891</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286587</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619497</v>
+        <v>48.2340179861948</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006298</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477976</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235182</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055757</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207815</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803554</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063113</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547333</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333786</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839561</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35421,7 +35421,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -35491,22 +35491,22 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35646,22 +35646,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35807,7 +35807,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35889,10 +35889,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36044,7 +36044,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36126,19 +36126,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994726</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,7 +36281,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36369,13 +36369,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36916,7 +36916,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -37311,10 +37311,10 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062831</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116991</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
